--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_2_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_2_bus.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009554201</v>
+        <v>0.9380319009554202</v>
       </c>
       <c r="G2">
         <v>-1.130199521952467</v>
@@ -10256,7 +10256,7 @@
         <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739707</v>
+        <v>25.98965116739708</v>
       </c>
       <c r="R2">
         <v>-91.13019952201601</v>
@@ -10306,16 +10306,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669994</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512945</v>
+        <v>0.2917056037512946</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644389</v>
+        <v>0.8906876332644386</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062537</v>
+        <v>7.091324389062567</v>
       </c>
       <c r="R3">
         <v>-119.1713773550799</v>
@@ -10332,37 +10332,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937069</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="D4">
-        <v>3.709154423937069</v>
+        <v>3.70915442393707</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="G4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251918</v>
       </c>
       <c r="H4">
-        <v>3.710336306063329</v>
+        <v>3.710336306063327</v>
       </c>
       <c r="I4">
-        <v>1.927279909883212</v>
+        <v>1.927279909883209</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570835</v>
+        <v>0.6277319163570871</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438697948317</v>
       </c>
       <c r="L4">
-        <v>0.62773191636387</v>
+        <v>0.6277319163638713</v>
       </c>
       <c r="M4">
-        <v>2.898438697960017</v>
+        <v>2.898438697960014</v>
       </c>
       <c r="N4">
         <v>0.9526279648032097</v>
@@ -10374,7 +10374,7 @@
         <v>0.952627964804756</v>
       </c>
       <c r="Q4">
-        <v>-1.252526497616222E-11</v>
+        <v>-1.247867849525495E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10430,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.95262796481368</v>
+        <v>0.9526279648136798</v>
       </c>
       <c r="Q5">
-        <v>4.605107299026295E-10</v>
+        <v>4.605560269616113E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995311</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10489,16 +10489,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136798</v>
+        <v>0.9526279648136797</v>
       </c>
       <c r="Q6">
-        <v>4.605030469222368E-10</v>
+        <v>4.605534833805347E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995311</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
